--- a/medicine/Enfance/Walter_Sorrells/Walter_Sorrells.xlsx
+++ b/medicine/Enfance/Walter_Sorrells/Walter_Sorrells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Sorrells, né en 1962 à Nashville, dans le Tennessee, aux États-Unis, est un écrivain de roman policier américain. Il utilise également les pseudonymes de Ruth Birmingham et Lynn Abercrombie. Ses écrits ne sont pas traduits en français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie au Haverford College et devient journaliste.
 Il commence une carrière de romancier en 1995 sous son patronyme. Il publie trois romans et opte, en 1998, pour le pseudonyme de Ruth Birmingham qu'il utilise dès lors en parallèle à son nom. Il signe une série de romans policiers mettant en scène la détective privé Sunny Childs d'Atlanta. Le second roman de la série est couronné du Prix Edgar-Allan-Poe de la meilleure parution en livre de poche. La série prend fin après six romans.
@@ -547,64 +561,213 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Hunted
-Fake I.D. (2005)
+          <t>Série Hunted</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fake I.D. (2005)
 Club Dread (2006)
-White Out (2009)
-Série Flight 29 Down
-Static (2006)
+White Out (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Flight 29 Down</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Static (2006)
 Scratch (2006)
 On Fire (2007)
 Survival (2007)
-Ten Rules (2006)
-Autres romans
-Power of Attorney (1995)
+Ten Rules (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Power of Attorney (1995)
 Will to Murder (1996)
 Cry for Justice (1996)
 Proof of Intent (2002) (manuscrit inachevé de William J. Coughlin complété par Sorrels)
 The Silent Room (2006)
 First Shot (2007)
-Erratum (2008)
-Sous le pseudonyme de Ruth Birmingham
-Série Sunny Childs
-Atlanta Graves (1998)
+Erratum (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Ruth Birmingham</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Sunny Childs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Atlanta Graves (1998)
 Fulton County Blues (1999)
 Sweet Georgia (2000)
 Blue Plate Special (2001)
 Cold Trail (2002)
-Feet of Clay (2006)
-Sous le pseudonyme de Lynn Abercrombie
-Série Cold Case
-The Body Box (2005)
+Feet of Clay (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Sorrells</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Lynn Abercrombie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Cold Case</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Body Box (2005)
 Blind Fear (2006)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Walter_Sorrells</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Walter_Sorrells</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix Edgar-Allan-Poe 2000 du meilleur livre de poche original pour Fulton County Blues.</t>
         </is>
